--- a/analogi.xlsx
+++ b/analogi.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="2220" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Объекты оценки" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Справочники" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Аналоги" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Аналоги 1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Аналоги 2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Marka">Справочники!$D$1:$D$89</definedName>
@@ -26,12 +27,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -67,20 +76,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -419,24 +431,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="15.6640625"/>
-    <col customWidth="1" max="3" min="3" width="9.109375"/>
-    <col customWidth="1" max="4" min="4" width="12.109375"/>
-    <col customWidth="1" max="5" min="5" width="13.77734375"/>
-    <col customWidth="1" max="6" min="6" width="10.88671875"/>
-    <col customWidth="1" max="8" min="8" width="13.5546875"/>
-    <col customWidth="1" max="12" min="12" width="19.88671875"/>
+    <col width="15.6640625" customWidth="1" min="2" max="2"/>
+    <col width="9.109375" customWidth="1" min="3" max="3"/>
+    <col width="12.109375" customWidth="1" min="4" max="4"/>
+    <col width="13.77734375" customWidth="1" min="5" max="5"/>
+    <col width="10.88671875" customWidth="1" min="6" max="6"/>
+    <col width="13.5546875" customWidth="1" min="8" max="8"/>
+    <col width="19.88671875" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="28.8" r="1">
+    <row r="1" ht="28.8" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Марка</t>
@@ -554,32 +566,79 @@
         <v>100000</v>
       </c>
       <c r="L2" t="n">
-        <v>3285000</v>
-      </c>
-    </row>
-    <row r="3"/>
+        <v>3029000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E3" t="n">
+        <v>181</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>бензин</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2054000</v>
+      </c>
+    </row>
+    <row r="4"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A2:A292" type="list">
+    <dataValidation sqref="A2:A292" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>Marka</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B290" type="list">
+    <dataValidation sqref="B2:B290" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>Model</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F300" type="list">
+    <dataValidation sqref="F2:F300" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>тип_двигателя</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G300" type="list">
+    <dataValidation sqref="G2:G300" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>привод</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H2:H300" type="list">
+    <dataValidation sqref="H2:H300" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>Тип_кузова</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I2:I300" type="list">
+    <dataValidation sqref="I2:I300" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>кпп</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -15661,7 +15720,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -15680,14 +15739,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14.5546875"/>
-    <col customWidth="1" max="2" min="2" width="11.33203125"/>
-    <col customWidth="1" max="3" min="3" width="14.109375"/>
-    <col customWidth="1" max="4" min="4" width="16"/>
-    <col customWidth="1" max="5" min="5" width="14.109375"/>
+    <col width="14.5546875" customWidth="1" min="1" max="1"/>
+    <col width="11.33203125" customWidth="1" min="2" max="2"/>
+    <col width="14.109375" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="14.109375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="28.8" r="1">
+    <row r="1" ht="28.8" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Марка</t>
@@ -15787,7 +15846,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15797,7 +15856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15915,7 +15974,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -15945,34 +16004,34 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>синий</t>
+          <t>белый</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>113000</v>
+        <v>106000</v>
       </c>
       <c r="L2" t="n">
-        <v>3430000</v>
+        <v>3350000</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/x5/1115724896-7c3b73c5/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1116054848-edbe009d/</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>3087000</v>
+        <v>3015000</v>
       </c>
       <c r="P2" t="n">
-        <v>2870910</v>
+        <v>3015000</v>
       </c>
       <c r="Q2" t="n">
-        <v>3014455</v>
+        <v>3075300</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>3014000</v>
+        <v>3075000</v>
       </c>
     </row>
     <row r="3">
@@ -15987,7 +16046,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -16017,69 +16076,2130 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>94974</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3349000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1116071107-7b890210/</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>3014100</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3014100</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2953818</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2954000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>218</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>чёрный</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>94145</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1116055624-86390ca8/</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>2790000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2790000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2734200</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2734000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>218</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>112480</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3490000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115620908-03eedc99/</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>3141000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2921130</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3037975</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3038000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>218</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>102000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1116083033-64b7d553/</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>2745000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2745000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2772450</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2772000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>218</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>82806</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3400000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115460360-8ba643e4/</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>3060000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3060000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2876400</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2876000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>218</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>85896</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3319000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115814769-09e98484/</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>2987100</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2987100</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2837745</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2838000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>218</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>98500</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2990000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115243353-516ac390/</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>2691000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2879370</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2879370</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2879000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>218</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>94500</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1116061347-fed51655/</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>2745000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2745000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2690100</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2690000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>218</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>117800</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3250000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115941124-11015099/</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>2925000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2925000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3100500</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>218</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>118000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115067520-f910927f/</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>2790000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2594700</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2750382</v>
+      </c>
+      <c r="R12" t="n">
+        <v>13</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>218</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>95000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115924775-c339c8be/</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>3240000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3013200</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2952936</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2953000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>218</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>99825</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3249000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1114642750-5fa16806/</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>2924100</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2719413</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2719413</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2719000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>218</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>коричневый</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>114650</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3370000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115702191-79fce437/</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>3033000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3245310</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3407575</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3408000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>218</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>123700</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3350000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115739404-b3eb7f60/</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>3015000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3015000</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3226050</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3226000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>218</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>120000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115528593-f079476b/</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>2745000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2745000</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2937150</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2937000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>218</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>118920</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3270000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1116064717-a701ce05/</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>2943000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2943000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3119580</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3120000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>218</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>77000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115480343-c630f075/</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>3330000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3330000</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3263400</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3263000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>218</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>коричневый</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>82000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1091195084-edb9e4c0/</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>3510000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3510000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3299400</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3299000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>218</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>коричневый</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>91000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4050000</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1101312505-6542296d/</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>3645000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3389850</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3288154</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3288000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>218</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>111451</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3199000</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1114991431-732974eb/</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>2879100</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2879100</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2994264</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2994000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>218</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>125000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115393417-3cc83f53/</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>3330000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3096900</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3313683</v>
+      </c>
+      <c r="R23" t="n">
+        <v>14</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3314000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>218</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>120000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3330000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115627066-1483586d/</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>2997000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2997000</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3206790</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3207000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>218</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>82500</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3690000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1116012182-4a7b13e8/</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>3321000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3088530</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2903218</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2903000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>218</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>114000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3150000</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115329094-4daa5983/</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>2835000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2835000</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2976750</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2977000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>218</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>105000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3550000</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1104749118-fff216b2/</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>3195000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3195000</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3258900</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3259000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>218</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>внедорожник 5 дв.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>121032</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3108668</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/x5/1115625847-2e741038/</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>2797801</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2993647</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3203202</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3203000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Марка</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Год выпуска</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Объем двигателя</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Мощность двигателя</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Тип двигателя</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Привод</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Тип кузова</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Тип КПП</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Цвет</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Пробег</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Ссылка</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Цена с корректировкой на торг</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Цена с корректировкой на год</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Цена с коррестировкой на пробег</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Валовая корректировка</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Стоимость с учетом всех корректировок</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/Toyota/Camry/all/body-SEDAN/?year_from=2017&amp;year_to=2019&amp;power_from=172&amp;displacement_from=2200&amp;displacement_to=2800&amp;transmission=AUTOMATIC&amp;power_to=190&amp;km_age_from=63750&amp;km_age_to=106250&amp;engine_group=GASOLINE&amp;gear_type=FORWARD_CONTROL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>181</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>76200</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115656013-2f3e4231/</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>2295000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2134350</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2048976</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2049000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>181</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
       <c r="K3" t="n">
-        <v>78000</v>
+        <v>83801</v>
       </c>
       <c r="L3" t="n">
-        <v>4420000</v>
+        <v>2384000</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/x5/1115923817-d6d957f5/</t>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115396227-cd2f17bf/</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>3978000</v>
+        <v>2145600</v>
       </c>
       <c r="P3" t="n">
-        <v>3699540</v>
+        <v>2145600</v>
       </c>
       <c r="Q3" t="n">
-        <v>3625549</v>
+        <v>2145600</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3626000</v>
+        <v>2146000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> дизель</t>
+          <t xml:space="preserve"> бензин</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>полный</t>
+          <t>передний</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>внедорожник 5 дв.</t>
+          <t>седан</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -16089,109 +18209,1765 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>коричневый</t>
+          <t>белый</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>89000</v>
+        <v>85000</v>
       </c>
       <c r="L4" t="n">
-        <v>4180000</v>
+        <v>2050000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/x5/1101312422-5a93df87/</t>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116015992-6b35c2d7/</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>3762000</v>
+        <v>1845000</v>
       </c>
       <c r="P4" t="n">
-        <v>3498660</v>
+        <v>1974150</v>
       </c>
       <c r="Q4" t="n">
-        <v>3358713</v>
+        <v>1974150</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="S4" t="n">
-        <v>3359000</v>
+        <v>1974000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>181</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2079000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115808522-c3fe2d8c/</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1871100</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2002077</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2122201</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2122000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>181</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>100124</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2602728</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115278423-fac0dd36/</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>2342455</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2178483</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2309191</v>
+      </c>
+      <c r="R6" t="n">
+        <v>13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2309000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>181</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>90375</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1999000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116043899-32f64cf1/</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1799100</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1799100</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1835082</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1835000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>181</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2328000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116044768-ed81205b/</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>2095200</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1948536</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1909565</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1910000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>181</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>79000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115579995-02d114c8/</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2008800</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1948536</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1949000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>181</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>91167</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2437000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115963547-557980c0/</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>2193300</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2193300</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2259099</v>
+      </c>
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>218</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> дизель</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>полный</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>внедорожник 5 дв.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="S10" t="n">
+        <v>2259000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>181</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>автомат</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>серебристый</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>64000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116073933-2fb5634d/</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>2249100</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2249100</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2204118</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2204000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>181</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>коричневый</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>68974</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2245000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116062382-c162a879/</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>2020500</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2161935</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2032218</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-13</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2032000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>181</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>79000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1899000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115134615-b2fa8de0/</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1709100</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1828737</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1773874</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1774000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>181</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2210000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116069632-a289ff9c/</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>1989000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1849770</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1812774</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1813000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>181</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>89999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2065000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116053728-eb7c597f/</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>1858500</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1858500</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1895670</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1896000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>181</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>чёрный</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>83000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3470000</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>https://auto.ru/cars/used/sale/bmw/x5/1115242357-b8d526f9/</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>3123000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3341610</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3141113</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-13</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3141000</v>
+      <c r="K16" t="n">
+        <v>95300</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2098000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116073947-2d73c38a/</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1888200</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2020374</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2101188</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2101000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>181</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>72000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115762060-0803b19e/</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2308500</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2308000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>181</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>86065</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2399000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116070551-572dc3a9/</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>2159100</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2007963</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2007963</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2008000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>181</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2380000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115404812-1137c5e2/</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>2142000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1992060</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1992060</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1992000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>181</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>68246</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2397000</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115820002-5ea35faa/</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>2157300</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2157300</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2027862</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2028000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>181</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>83800</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1114590768-3fd87981/</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>181</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>89500</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116017699-da6154b1/</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2203200</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2203000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>181</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>81466</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2560000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115695397-8cd93738/</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>2304000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2142720</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2121292</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2121000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>181</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>64000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116086878-aa8f7f7e/</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2028600</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2029000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>181</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>89577</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2019000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115844097-891c6a94/</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>1817100</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1944297</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1983182</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1983000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>181</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>102428</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2197000</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116037365-07238fbc/</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>1977300</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1838889</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1967611</v>
+      </c>
+      <c r="R26" t="n">
+        <v>14</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1968000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>181</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>100765</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2160917</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1115952699-b34cceeb/</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>1944825</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2080962</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2205819</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2206000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>181</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> бензин</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>102418</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2148000</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/toyota/camry/1116071109-935097b4/</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>1933200</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1933200</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2068524</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2069000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/analogi.xlsx
+++ b/analogi.xlsx
@@ -513,37 +513,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AUDI</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>5ER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>218</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>бензин</t>
+          <t>дизель</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>передний</t>
+          <t>полный</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -558,11 +558,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>160000</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3054000</v>
+        <v>1589000</v>
       </c>
     </row>
     <row r="3"/>
@@ -15805,7 +15805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15907,38 +15907,38 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/AUDI/A4/all/body-SEDAN/?year_from=2019&amp;year_to=2021&amp;power_from=180&amp;displacement_from=1800&amp;displacement_to=2200&amp;transmission=AUTOMATIC&amp;transmission=ROBOT&amp;transmission=VARIATOR&amp;power_to=200&amp;km_age_from=26000&amp;km_age_to=54000&amp;engine_group=GASOLINE&amp;gear_type=FORWARD_CONTROL</t>
+          <t>https://auto.ru/cars/BMW/5ER/all/body-SEDAN/?year_from=2011&amp;year_to=2013&amp;power_from=207&amp;displacement_from=1800&amp;displacement_to=2200&amp;transmission=AUTOMATIC&amp;transmission=ROBOT&amp;transmission=VARIATOR&amp;power_to=229&amp;km_age_from=100000&amp;km_age_to=240000&amp;engine_group=DIESEL&amp;gear_type=ALL_WHEEL_DRIVE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A4 с АКПП</t>
+          <t>5 серии с АКПП</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> бензин</t>
+          <t xml:space="preserve"> дизель</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>передний</t>
+          <t>полный</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -15948,69 +15948,69 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>робот</t>
+          <t>автомат</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>чёрный</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>43500</v>
+        <v>132000</v>
       </c>
       <c r="L2" t="n">
-        <v>3179900</v>
+        <v>1840000</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/audi/a4/1115235989-f621c2cd/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116251302-c5ead8b7/</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2861910</v>
+        <v>1656000</v>
       </c>
       <c r="P2" t="n">
-        <v>2861910</v>
+        <v>1540080</v>
       </c>
       <c r="Q2" t="n">
-        <v>2947767</v>
+        <v>1447675</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>2948000</v>
+        <v>1448000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A4 с АКПП</t>
+          <t>5 серии с АКПП</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> бензин</t>
+          <t xml:space="preserve"> дизель</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>передний</t>
+          <t>полный</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>робот</t>
+          <t>автомат</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -16029,60 +16029,60 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>37500</v>
+        <v>166000</v>
       </c>
       <c r="L3" t="n">
-        <v>3150000</v>
+        <v>1730000</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/audi/a4/1116457013-09e99437/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115726253-6b91fc96/</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2835000</v>
+        <v>1557000</v>
       </c>
       <c r="P3" t="n">
-        <v>2835000</v>
+        <v>1557000</v>
       </c>
       <c r="Q3" t="n">
-        <v>2778300</v>
+        <v>1572570</v>
       </c>
       <c r="R3" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>2778000</v>
+        <v>1573000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A4 с АКПП</t>
+          <t>5 серии с АКПП</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> бензин</t>
+          <t xml:space="preserve"> дизель</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>передний</t>
+          <t>полный</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -16092,69 +16092,69 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>робот</t>
+          <t>автомат</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>чёрный</t>
+          <t>белый</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>31000</v>
+        <v>151000</v>
       </c>
       <c r="L4" t="n">
-        <v>3650000</v>
+        <v>1950000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/audi/a4/1116410946-13008fc1/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116573704-14c13166/</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>3285000</v>
+        <v>1755000</v>
       </c>
       <c r="P4" t="n">
-        <v>3285000</v>
+        <v>1632150</v>
       </c>
       <c r="Q4" t="n">
-        <v>3219300</v>
+        <v>1599507</v>
       </c>
       <c r="R4" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>3219000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A4 с АКПП</t>
+          <t>5 серии с АКПП</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> бензин</t>
+          <t xml:space="preserve"> дизель</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>передний</t>
+          <t>полный</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -16164,7 +16164,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>робот</t>
+          <t>автомат</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -16173,60 +16173,60 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>35000</v>
+        <v>151000</v>
       </c>
       <c r="L5" t="n">
-        <v>3390000</v>
+        <v>1790000</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/audi/a4/1115139695-d2e3d4ac/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116626937-20e38c3a/</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>3051000</v>
+        <v>1611000</v>
       </c>
       <c r="P5" t="n">
-        <v>3051000</v>
+        <v>1498230</v>
       </c>
       <c r="Q5" t="n">
-        <v>2928960</v>
+        <v>1468265</v>
       </c>
       <c r="R5" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>2929000</v>
+        <v>1468000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A4 с АКПП</t>
+          <t>5 серии с АКПП</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> бензин</t>
+          <t xml:space="preserve"> дизель</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>передний</t>
+          <t>полный</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -16236,7 +16236,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>робот</t>
+          <t>автомат</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -16245,60 +16245,60 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>44000</v>
+        <v>160000</v>
       </c>
       <c r="L6" t="n">
-        <v>3600000</v>
+        <v>1980000</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/audi/a4/1102397547-70fd7974/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116528832-99e57b2e/</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>3240000</v>
+        <v>1782000</v>
       </c>
       <c r="P6" t="n">
-        <v>3240000</v>
+        <v>1657260</v>
       </c>
       <c r="Q6" t="n">
-        <v>3369600</v>
+        <v>1657260</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S6" t="n">
-        <v>3370000</v>
+        <v>1657000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A4 с АКПП</t>
+          <t>5 серии с АКПП</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> бензин</t>
+          <t xml:space="preserve"> дизель</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>передний</t>
+          <t>полный</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -16308,7 +16308,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>робот</t>
+          <t>автомат</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -16317,30 +16317,750 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>26426</v>
+        <v>176000</v>
       </c>
       <c r="L7" t="n">
-        <v>3490000</v>
+        <v>1960000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/audi/a4/1116171999-4f208cdf/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116518729-39a4cf87/</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>3141000</v>
+        <v>1764000</v>
       </c>
       <c r="P7" t="n">
-        <v>3141000</v>
+        <v>1640520</v>
       </c>
       <c r="Q7" t="n">
-        <v>3078180</v>
+        <v>1706140</v>
       </c>
       <c r="R7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1706000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>218</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>130000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2220000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116484597-bfff401a/</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>1998000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1858140</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1746651</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1747000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>218</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>200000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1480000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116309681-55afeee5/</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>1332000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1332000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1425240</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1425000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>218</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>145000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115860064-698e5a0f/</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>1602000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1602000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1553940</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1554000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>218</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>195000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115840046-17870f60/</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>1611000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1611000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1723770</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1724000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>218</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>147000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115729143-b9469f7d/</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>1611000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1611000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1562670</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1563000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>218</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>коричневый</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>143000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115244266-3105045a/</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1755000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1632150</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1566864</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>218</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>151000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116626938-b06f2225/</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>1611000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1498230</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1468265</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1468000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>218</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>бежевый</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>89000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1910000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116443562-34427a30/</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>1719000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1719000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1684620</v>
+      </c>
+      <c r="R15" t="n">
         <v>-7</v>
       </c>
-      <c r="S7" t="n">
-        <v>3078000</v>
+      <c r="S15" t="n">
+        <v>1685000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>218</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>161000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2040000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116234057-d9eef00d/</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1836000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1707480</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1707480</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1707000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>218</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>177000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115973848-1886f997/</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1377000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1473390</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1532325</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1532000</v>
       </c>
     </row>
   </sheetData>

--- a/analogi.xlsx
+++ b/analogi.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1589000</v>
+        <v>1473000</v>
       </c>
     </row>
     <row r="3"/>
@@ -15805,7 +15805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15923,7 +15923,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -15953,34 +15953,34 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>серый</t>
+          <t>чёрный</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>132000</v>
+        <v>240000</v>
       </c>
       <c r="L2" t="n">
-        <v>1840000</v>
+        <v>1400000</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116251302-c5ead8b7/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1105086290-1d6e4d7a/</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1656000</v>
+        <v>1260000</v>
       </c>
       <c r="P2" t="n">
-        <v>1540080</v>
+        <v>1260000</v>
       </c>
       <c r="Q2" t="n">
-        <v>1447675</v>
+        <v>1348200</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>1448000</v>
+        <v>1348000</v>
       </c>
     </row>
     <row r="3">
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -16025,34 +16025,34 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>чёрный</t>
+          <t>синий</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>166000</v>
+        <v>169000</v>
       </c>
       <c r="L3" t="n">
-        <v>1730000</v>
+        <v>1500000</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1115726253-6b91fc96/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116817888-1c02da04/</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>1557000</v>
+        <v>1350000</v>
       </c>
       <c r="P3" t="n">
-        <v>1557000</v>
+        <v>1444500</v>
       </c>
       <c r="Q3" t="n">
-        <v>1572570</v>
+        <v>1473390</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="S3" t="n">
-        <v>1573000</v>
+        <v>1473000</v>
       </c>
     </row>
     <row r="4">
@@ -16067,7 +16067,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -16097,34 +16097,34 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>белый</t>
+          <t>коричневый</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>151000</v>
+        <v>175000</v>
       </c>
       <c r="L4" t="n">
-        <v>1950000</v>
+        <v>1355000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116573704-14c13166/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116747291-12c3d098/</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1755000</v>
+        <v>1219500</v>
       </c>
       <c r="P4" t="n">
-        <v>1632150</v>
+        <v>1219500</v>
       </c>
       <c r="Q4" t="n">
-        <v>1599507</v>
+        <v>1256085</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1600000</v>
+        <v>1256000</v>
       </c>
     </row>
     <row r="5">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -16169,34 +16169,34 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>чёрный</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>151000</v>
+        <v>130136</v>
       </c>
       <c r="L5" t="n">
-        <v>1790000</v>
+        <v>1599000</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116626937-20e38c3a/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1106450209-58c3e060/</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>1611000</v>
+        <v>1439100</v>
       </c>
       <c r="P5" t="n">
-        <v>1498230</v>
+        <v>1439100</v>
       </c>
       <c r="Q5" t="n">
-        <v>1468265</v>
+        <v>1352754</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="S5" t="n">
-        <v>1468000</v>
+        <v>1353000</v>
       </c>
     </row>
     <row r="6">
@@ -16211,7 +16211,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -16241,34 +16241,34 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>чёрный</t>
+          <t>коричневый</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>160000</v>
+        <v>180001</v>
       </c>
       <c r="L6" t="n">
-        <v>1980000</v>
+        <v>1500000</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116528832-99e57b2e/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116560849-9a258845/</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>1782000</v>
+        <v>1350000</v>
       </c>
       <c r="P6" t="n">
-        <v>1657260</v>
+        <v>1350000</v>
       </c>
       <c r="Q6" t="n">
-        <v>1657260</v>
+        <v>1404000</v>
       </c>
       <c r="R6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>1657000</v>
+        <v>1404000</v>
       </c>
     </row>
     <row r="7">
@@ -16317,30 +16317,30 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>176000</v>
+        <v>181300</v>
       </c>
       <c r="L7" t="n">
-        <v>1960000</v>
+        <v>1500000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116518729-39a4cf87/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1114581068-7b1f2159/</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1764000</v>
+        <v>1350000</v>
       </c>
       <c r="P7" t="n">
-        <v>1640520</v>
+        <v>1255500</v>
       </c>
       <c r="Q7" t="n">
-        <v>1706140</v>
+        <v>1318275</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S7" t="n">
-        <v>1706000</v>
+        <v>1318000</v>
       </c>
     </row>
     <row r="8">
@@ -16355,7 +16355,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -16385,34 +16385,34 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>чёрный</t>
+          <t>белый</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>130000</v>
+        <v>141000</v>
       </c>
       <c r="L8" t="n">
-        <v>2220000</v>
+        <v>1470000</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116484597-bfff401a/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116488522-54d1ae81/</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>1998000</v>
+        <v>1323000</v>
       </c>
       <c r="P8" t="n">
-        <v>1858140</v>
+        <v>1415610</v>
       </c>
       <c r="Q8" t="n">
-        <v>1746651</v>
+        <v>1358985</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="S8" t="n">
-        <v>1747000</v>
+        <v>1359000</v>
       </c>
     </row>
     <row r="9">
@@ -16457,34 +16457,34 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>чёрный</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>200000</v>
+        <v>126000</v>
       </c>
       <c r="L9" t="n">
-        <v>1480000</v>
+        <v>1540000</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116309681-55afeee5/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115729143-b9469f7d/</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>1332000</v>
+        <v>1386000</v>
       </c>
       <c r="P9" t="n">
-        <v>1332000</v>
+        <v>1386000</v>
       </c>
       <c r="Q9" t="n">
-        <v>1425240</v>
+        <v>1358280</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="S9" t="n">
-        <v>1425000</v>
+        <v>1358000</v>
       </c>
     </row>
     <row r="10">
@@ -16529,34 +16529,34 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>серый</t>
+          <t>бежевый</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>145000</v>
+        <v>100500</v>
       </c>
       <c r="L10" t="n">
-        <v>1780000</v>
+        <v>1700000</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1115860064-698e5a0f/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116443562-34427a30/</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1602000</v>
+        <v>1530000</v>
       </c>
       <c r="P10" t="n">
-        <v>1602000</v>
+        <v>1530000</v>
       </c>
       <c r="Q10" t="n">
-        <v>1553940</v>
+        <v>1499400</v>
       </c>
       <c r="R10" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="S10" t="n">
-        <v>1554000</v>
+        <v>1499000</v>
       </c>
     </row>
     <row r="11">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -16601,34 +16601,34 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>синий</t>
+          <t>чёрный</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>195000</v>
+        <v>177000</v>
       </c>
       <c r="L11" t="n">
-        <v>1790000</v>
+        <v>1550000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1115840046-17870f60/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116626937-20e38c3a/</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>1611000</v>
+        <v>1395000</v>
       </c>
       <c r="P11" t="n">
-        <v>1611000</v>
+        <v>1297350</v>
       </c>
       <c r="Q11" t="n">
-        <v>1723770</v>
+        <v>1349244</v>
       </c>
       <c r="R11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>1724000</v>
+        <v>1349000</v>
       </c>
     </row>
     <row r="12">
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -16677,30 +16677,30 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>147000</v>
+        <v>160000</v>
       </c>
       <c r="L12" t="n">
-        <v>1790000</v>
+        <v>2050000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1115729143-b9469f7d/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116624057-8069eada/</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>1611000</v>
+        <v>1845000</v>
       </c>
       <c r="P12" t="n">
-        <v>1611000</v>
+        <v>1715850</v>
       </c>
       <c r="Q12" t="n">
-        <v>1562670</v>
+        <v>1715850</v>
       </c>
       <c r="R12" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="S12" t="n">
-        <v>1563000</v>
+        <v>1716000</v>
       </c>
     </row>
     <row r="13">
@@ -16745,34 +16745,34 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>коричневый</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>143000</v>
+        <v>150000</v>
       </c>
       <c r="L13" t="n">
-        <v>1950000</v>
+        <v>1899999</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1115244266-3105045a/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116234057-d9eef00d/</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>1755000</v>
+        <v>1709999</v>
       </c>
       <c r="P13" t="n">
-        <v>1632150</v>
+        <v>1590299</v>
       </c>
       <c r="Q13" t="n">
-        <v>1566864</v>
+        <v>1558493</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>1567000</v>
+        <v>1558000</v>
       </c>
     </row>
     <row r="14">
@@ -16821,30 +16821,30 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>151000</v>
+        <v>179000</v>
       </c>
       <c r="L14" t="n">
-        <v>1790000</v>
+        <v>1635000</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116626938-b06f2225/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116755790-71fb0be4/</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>1611000</v>
+        <v>1471500</v>
       </c>
       <c r="P14" t="n">
-        <v>1498230</v>
+        <v>1368495</v>
       </c>
       <c r="Q14" t="n">
-        <v>1468265</v>
+        <v>1423234</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>1468000</v>
+        <v>1423000</v>
       </c>
     </row>
     <row r="15">
@@ -16859,7 +16859,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -16889,34 +16889,34 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>бежевый</t>
+          <t>белый</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>89000</v>
+        <v>151000</v>
       </c>
       <c r="L15" t="n">
-        <v>1910000</v>
+        <v>1950000</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116443562-34427a30/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116573704-14c13166/</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>1719000</v>
+        <v>1755000</v>
       </c>
       <c r="P15" t="n">
-        <v>1719000</v>
+        <v>1632150</v>
       </c>
       <c r="Q15" t="n">
-        <v>1684620</v>
+        <v>1599507</v>
       </c>
       <c r="R15" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1685000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="16">
@@ -16961,34 +16961,34 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>серый</t>
+          <t>чёрный</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>161000</v>
+        <v>145000</v>
       </c>
       <c r="L16" t="n">
-        <v>2040000</v>
+        <v>2000000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>https://auto.ru/cars/used/sale/bmw/5er/1116234057-d9eef00d/</t>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116484597-bfff401a/</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>1836000</v>
+        <v>1800000</v>
       </c>
       <c r="P16" t="n">
-        <v>1707480</v>
+        <v>1674000</v>
       </c>
       <c r="Q16" t="n">
-        <v>1707480</v>
+        <v>1623780</v>
       </c>
       <c r="R16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>1707000</v>
+        <v>1624000</v>
       </c>
     </row>
     <row r="17">
@@ -17037,10 +17037,10 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>177000</v>
+        <v>180000</v>
       </c>
       <c r="L17" t="n">
-        <v>1530000</v>
+        <v>1500000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -17048,19 +17048,1027 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>1377000</v>
+        <v>1350000</v>
       </c>
       <c r="P17" t="n">
-        <v>1473390</v>
+        <v>1444500</v>
       </c>
       <c r="Q17" t="n">
-        <v>1532325</v>
+        <v>1502280</v>
       </c>
       <c r="R17" t="n">
         <v>-3</v>
       </c>
       <c r="S17" t="n">
-        <v>1532000</v>
+        <v>1502000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>218</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>159000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1625000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115860064-698e5a0f/</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>1462500</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1462500</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1462500</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1462000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>218</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>170241</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115726253-6b91fc96/</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>1507500</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1507500</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1537650</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1538000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>218</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>194833</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116337219-bc66eac7/</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>1575000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1464750</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1567282</v>
+      </c>
+      <c r="R20" t="n">
+        <v>14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>218</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>коричневый</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>182000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115870089-72334f27/</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1422900</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1494045</v>
+      </c>
+      <c r="R21" t="n">
+        <v>12</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1494000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>218</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>серебристый</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>208000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116713374-d74b2e96/</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>1611000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1498230</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1603106</v>
+      </c>
+      <c r="R22" t="n">
+        <v>14</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1603000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>218</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>230000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116646149-2c525a58/</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1637100</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1637000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>218</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>239000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1671000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1036804600-b9869/</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>1503900</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1398627</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1496530</v>
+      </c>
+      <c r="R24" t="n">
+        <v>14</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1497000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>218</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>168000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116325472-a5357a49/</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1255500</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1280610</v>
+      </c>
+      <c r="R25" t="n">
+        <v>9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1281000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>218</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>163000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115957457-b87644d1/</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>1503000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1397790</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1397790</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1398000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>218</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>152000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1114793899-73524d95/</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>1548000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1656360</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1623232</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1623000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>218</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>коричневый</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>150000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1115244266-3105045a/</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>1665000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1548450</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1517481</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1517000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>218</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>чёрный</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>181000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1520000</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1102237229-40abfbf2/</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>1368000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1368000</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1436000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>218</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>169000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1839900</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1114658506-45ab9cbb/</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>1655910</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1539996</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1570795</v>
+      </c>
+      <c r="R30" t="n">
+        <v>9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1571000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5 серии с АКПП</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>218</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> дизель</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>полный</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>седан</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>автомат</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>134000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://auto.ru/cars/used/sale/bmw/5er/1116251302-c5ead8b7/</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1506600</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1431270</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1431000</v>
       </c>
     </row>
   </sheetData>
